--- a/result_tabular_files/1273/compiled_excel_20A_20B.xlsx
+++ b/result_tabular_files/1273/compiled_excel_20A_20B.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="tr_20A_20B_pos_subs" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,6 +14,7 @@
     <sheet name="gen_20A_gen_pos_subs" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="gen_wu_20A_pos_subs" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="gen_wu_20B_gen_pos_subs" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Description of sheets" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1850" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1870" uniqueCount="44">
   <si>
     <t xml:space="preserve">REF</t>
   </si>
@@ -97,6 +98,66 @@
   </si>
   <si>
     <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheet 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tr_20A_20B_pos_subs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Store the positional frequency of substitutions beween clades 20A and 20B from training data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheet 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tr_wu_20A_pos_subs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Store the positional frequency of substitutions beween original reference and 20A from training data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheet 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tr_wu_20B_pos_subs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Store the positional frequency of substitutions beween original reference and 20B from training data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheet 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gen_20A_gen_pos_subs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Store the positional frequency of substitutions beween clade 20A from test data and the generated sequences this 20A sequences</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheet 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gen_wu_20A_pos_subs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Store the positional frequency of substitutions beween original reference and 20A from test data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheet 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gen_wu_20B_gen_pos_subs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Store the positional frequency of substitutions beween original reference and generated sequences using 20A from test data</t>
   </si>
 </sst>
 </file>
@@ -219,7 +280,7 @@
   </sheetPr>
   <dimension ref="A1:D297"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -13253,4 +13314,113 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="113.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="9.14"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/result_tabular_files/1273/compiled_excel_20A_20B.xlsx
+++ b/result_tabular_files/1273/compiled_excel_20A_20B.xlsx
@@ -14,7 +14,7 @@
     <sheet name="gen_20A_gen_pos_subs" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="gen_wu_20A_pos_subs" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="gen_wu_20B_gen_pos_subs" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Description of sheets" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Description" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1870" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1872" uniqueCount="46">
   <si>
     <t xml:space="preserve">REF</t>
   </si>
@@ -159,6 +159,13 @@
   <si>
     <t xml:space="preserve">Store the positional frequency of substitutions beween original reference and generated sequences using 20A from test data</t>
   </si>
+  <si>
+    <t xml:space="preserve">Orginal reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCBI Reference Sequence: YP_009724390.1
+https://www.ncbi.nlm.nih.gov/protein/YP_009724390.1</t>
+  </si>
 </sst>
 </file>
 
@@ -167,7 +174,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -195,6 +202,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -248,7 +262,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -259,6 +273,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -13321,17 +13339,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="113.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="113.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="9.14"/>
   </cols>
   <sheetData>
@@ -13354,7 +13372,6 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>29</v>
@@ -13366,7 +13383,6 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>32</v>
@@ -13378,7 +13394,6 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>35</v>
@@ -13390,7 +13405,6 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>38</v>
@@ -13402,7 +13416,6 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>41</v>
@@ -13414,7 +13427,18 @@
         <v>43</v>
       </c>
     </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B14" r:id="rId1" display="NCBI Reference Sequence: YP_009724390.1&#10;https://www.ncbi.nlm.nih.gov/protein/YP_009724390.1"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
